--- a/Cronograma/Itinerario_V3.xlsx
+++ b/Cronograma/Itinerario_V3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luise\Desktop\PPP_Echeverria_24421\PPP_Echeverria_24421\Cronograma\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PPP_Echeverria_24421\Cronograma\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816D3E35-1BC6-4B32-9503-E83D252401A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81592C72-F4B5-4F7D-9BE9-A957BD852A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActividadesDetalle" sheetId="5" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="106">
   <si>
     <t>FECHA</t>
   </si>
@@ -102,13 +102,6 @@
     <t>Reunión inicial con stakeholders para presentación del proyecto.
 Levantamiento de requisitos funcionales y no funcionales.
 Definición del alcance general del proyecto y objetivos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6
-</t>
-  </si>
-  <si>
-    <t>Feriado</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -513,7 +506,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -529,12 +522,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,7 +623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -679,9 +666,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -697,9 +681,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -732,6 +713,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1012,143 +996,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A51" zoomScale="38" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="123.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="46.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="42.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="32.875" customWidth="1"/>
-    <col min="8" max="8" width="11.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="123.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.33203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="46.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="42.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="32.88671875" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.25" x14ac:dyDescent="0.6">
-      <c r="A1" s="28"/>
-      <c r="B1" s="33" t="s">
+    <row r="1" spans="1:9" ht="33.6" x14ac:dyDescent="0.8">
+      <c r="A1" s="26"/>
+      <c r="B1" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-    </row>
-    <row r="2" spans="1:8" ht="32.25" x14ac:dyDescent="0.6">
-      <c r="A2" s="29" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+    </row>
+    <row r="2" spans="1:9" ht="33.6" x14ac:dyDescent="0.8">
+      <c r="A2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="30"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
       <c r="G2" s="28"/>
-      <c r="H2" s="32"/>
-    </row>
-    <row r="3" spans="1:8" ht="32.25" x14ac:dyDescent="0.6">
-      <c r="A3" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="30"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="30"/>
+    </row>
+    <row r="3" spans="1:9" ht="33.6" x14ac:dyDescent="0.8">
+      <c r="A3" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
       <c r="G3" s="28"/>
-      <c r="H3" s="32"/>
-    </row>
-    <row r="4" spans="1:8" ht="32.25" x14ac:dyDescent="0.6">
-      <c r="A4" s="29" t="s">
+      <c r="H3" s="26"/>
+      <c r="I3" s="30"/>
+    </row>
+    <row r="4" spans="1:9" ht="33.6" x14ac:dyDescent="0.8">
+      <c r="A4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="29"/>
       <c r="G4" s="28"/>
-      <c r="H4" s="32"/>
-    </row>
-    <row r="5" spans="1:8" ht="32.25" x14ac:dyDescent="0.6">
-      <c r="A5" s="29" t="s">
+      <c r="H4" s="26"/>
+      <c r="I4" s="30"/>
+    </row>
+    <row r="5" spans="1:9" ht="33.6" x14ac:dyDescent="0.8">
+      <c r="A5" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="30"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="29"/>
       <c r="G5" s="28"/>
-      <c r="H5" s="32"/>
-    </row>
-    <row r="6" spans="1:8" ht="32.25" x14ac:dyDescent="0.6">
-      <c r="A6" s="29" t="s">
+      <c r="H5" s="26"/>
+      <c r="I5" s="30"/>
+    </row>
+    <row r="6" spans="1:9" ht="33.6" x14ac:dyDescent="0.8">
+      <c r="A6" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="30"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="29"/>
       <c r="G6" s="28"/>
-      <c r="H6" s="32"/>
-    </row>
-    <row r="7" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H6" s="26"/>
+      <c r="I6" s="30"/>
+    </row>
+    <row r="7" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="5"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G8" s="4"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="5"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="G9" s="4"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.5">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E10" s="4"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="5"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="4"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" ht="51" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="4"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" ht="51" customHeight="1" thickTop="1" x14ac:dyDescent="0.5">
       <c r="A12" s="10" t="s">
         <v>0</v>
       </c>
@@ -1161,7 +1153,9 @@
       <c r="D12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="11" t="s">
+        <v>3</v>
+      </c>
       <c r="F12" s="10" t="s">
         <v>2</v>
       </c>
@@ -1171,1034 +1165,1030 @@
       <c r="H12" s="12" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A13" s="27">
+      <c r="I12"/>
+    </row>
+    <row r="13" spans="1:9" ht="409.6" x14ac:dyDescent="0.8">
+      <c r="A13" s="25">
         <v>45768</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="18">
+        <v>6</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="18">
+        <v>6</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13"/>
+    </row>
+    <row r="14" spans="1:9" ht="409.6" x14ac:dyDescent="0.8">
+      <c r="A14" s="25">
+        <v>45769</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="18">
+        <v>6</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="18">
+        <v>6</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14"/>
+    </row>
+    <row r="15" spans="1:9" ht="409.6" x14ac:dyDescent="0.8">
+      <c r="A15" s="25">
+        <v>45770</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="18">
+        <v>6</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="18">
+        <v>6</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15"/>
+    </row>
+    <row r="16" spans="1:9" ht="409.6" x14ac:dyDescent="0.8">
+      <c r="A16" s="25">
+        <v>45771</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="18">
+        <v>6</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="18">
+        <v>6</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16"/>
+    </row>
+    <row r="17" spans="1:9" ht="268.8" x14ac:dyDescent="0.8">
+      <c r="A17" s="25">
+        <v>45772</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="19">
-        <v>6</v>
-      </c>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="1:8" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A14" s="27">
-        <v>45769</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="19">
-        <v>6</v>
-      </c>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="1:8" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A15" s="27">
-        <v>45770</v>
-      </c>
-      <c r="B15" s="20" t="s">
+      <c r="E17" s="18">
+        <v>6</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="18">
+        <v>6</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17"/>
+    </row>
+    <row r="18" spans="1:9" ht="409.6" x14ac:dyDescent="0.8">
+      <c r="A18" s="25">
+        <v>45775</v>
+      </c>
+      <c r="B18" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="18" t="s">
+      <c r="C18" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="18">
+        <v>6</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="18">
+        <v>6</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18"/>
+    </row>
+    <row r="19" spans="1:9" ht="409.6" x14ac:dyDescent="0.8">
+      <c r="A19" s="25">
+        <v>45776</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="19">
-        <v>6</v>
-      </c>
-      <c r="H15" s="16"/>
-    </row>
-    <row r="16" spans="1:8" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A16" s="27">
-        <v>45771</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="19">
-        <v>6</v>
-      </c>
-      <c r="H16" s="16"/>
-    </row>
-    <row r="17" spans="1:8" ht="258" x14ac:dyDescent="0.6">
-      <c r="A17" s="27">
-        <v>45772</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="13" t="s">
+      <c r="E19" s="18">
+        <v>6</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="18">
+        <v>6</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19"/>
+    </row>
+    <row r="20" spans="1:9" ht="409.6" x14ac:dyDescent="0.8">
+      <c r="A20" s="25">
+        <v>45777</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D20" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="19">
-        <v>6</v>
-      </c>
-      <c r="H17" s="16"/>
-    </row>
-    <row r="18" spans="1:8" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A18" s="27">
-        <v>45775</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="13" t="s">
+      <c r="E20" s="18">
+        <v>6</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="18">
+        <v>6</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20"/>
+    </row>
+    <row r="21" spans="1:9" ht="409.6" x14ac:dyDescent="0.8">
+      <c r="A21" s="25">
+        <v>45778</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D21" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="19">
-        <v>6</v>
-      </c>
-      <c r="H18" s="16"/>
-    </row>
-    <row r="19" spans="1:8" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A19" s="27">
-        <v>45776</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="19">
-        <v>6</v>
-      </c>
-      <c r="H19" s="16"/>
-    </row>
-    <row r="20" spans="1:8" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A20" s="27">
-        <v>45777</v>
-      </c>
-      <c r="B20" s="21" t="s">
+      <c r="E21" s="18">
+        <v>6</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" s="18">
+        <v>6</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21"/>
+    </row>
+    <row r="22" spans="1:9" ht="409.6" x14ac:dyDescent="0.8">
+      <c r="A22" s="25">
+        <v>45782</v>
+      </c>
+      <c r="B22" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C22" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="19">
-        <v>6</v>
-      </c>
-      <c r="H20" s="16"/>
-    </row>
-    <row r="21" spans="1:8" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A21" s="27">
-        <v>45778</v>
-      </c>
-      <c r="B21" s="21" t="s">
+      <c r="D22" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="18">
+        <v>6</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="18">
+        <v>6</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22"/>
+    </row>
+    <row r="23" spans="1:9" ht="409.6" x14ac:dyDescent="0.8">
+      <c r="A23" s="25">
+        <v>45783</v>
+      </c>
+      <c r="B23" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C23" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="19">
-        <v>6</v>
-      </c>
-      <c r="H21" s="16"/>
-    </row>
-    <row r="22" spans="1:8" ht="32.25" x14ac:dyDescent="0.6">
-      <c r="A22" s="27">
-        <v>45779</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" s="16"/>
-    </row>
-    <row r="23" spans="1:8" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A23" s="27">
-        <v>45782</v>
-      </c>
-      <c r="B23" s="21" t="s">
+      <c r="D23" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="18">
+        <v>6</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" s="18">
+        <v>6</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23"/>
+    </row>
+    <row r="24" spans="1:9" ht="409.6" x14ac:dyDescent="0.8">
+      <c r="A24" s="25">
+        <v>45784</v>
+      </c>
+      <c r="B24" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C24" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="19">
-        <v>6</v>
-      </c>
-      <c r="H23" s="16"/>
-    </row>
-    <row r="24" spans="1:8" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A24" s="27">
-        <v>45783</v>
-      </c>
-      <c r="B24" s="21" t="s">
+      <c r="D24" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="18">
+        <v>6</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="18">
+        <v>6</v>
+      </c>
+      <c r="H24" s="15"/>
+      <c r="I24"/>
+    </row>
+    <row r="25" spans="1:9" ht="409.6" x14ac:dyDescent="0.8">
+      <c r="A25" s="25">
+        <v>45785</v>
+      </c>
+      <c r="B25" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C25" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="19">
-        <v>6</v>
-      </c>
-      <c r="H24" s="16"/>
-    </row>
-    <row r="25" spans="1:8" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A25" s="27">
-        <v>45784</v>
-      </c>
-      <c r="B25" s="21" t="s">
+      <c r="D25" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="18">
+        <v>6</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" s="18">
+        <v>6</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25"/>
+    </row>
+    <row r="26" spans="1:9" ht="268.8" x14ac:dyDescent="0.8">
+      <c r="A26" s="25">
+        <v>45786</v>
+      </c>
+      <c r="B26" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C26" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="19">
-        <v>6</v>
-      </c>
-      <c r="H25" s="16"/>
-    </row>
-    <row r="26" spans="1:8" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A26" s="27">
-        <v>45785</v>
-      </c>
-      <c r="B26" s="21" t="s">
+      <c r="D26" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="18">
+        <v>6</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="18">
+        <v>6</v>
+      </c>
+      <c r="H26" s="15"/>
+      <c r="I26"/>
+    </row>
+    <row r="27" spans="1:9" ht="409.6" x14ac:dyDescent="0.8">
+      <c r="A27" s="25">
+        <v>45789</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="D27" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="18">
+        <v>6</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="18">
+        <v>6</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27"/>
+    </row>
+    <row r="28" spans="1:9" ht="409.6" x14ac:dyDescent="0.8">
+      <c r="A28" s="25">
+        <v>45790</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="19">
-        <v>6</v>
-      </c>
-      <c r="H26" s="16"/>
-    </row>
-    <row r="27" spans="1:8" ht="258" x14ac:dyDescent="0.6">
-      <c r="A27" s="27">
-        <v>45786</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="13" t="s">
+      <c r="D28" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="18">
+        <v>6</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="18">
+        <v>6</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28"/>
+    </row>
+    <row r="29" spans="1:9" ht="409.6" x14ac:dyDescent="0.8">
+      <c r="A29" s="25">
+        <v>45791</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D29" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" s="19">
-        <v>6</v>
-      </c>
-      <c r="H27" s="16"/>
-    </row>
-    <row r="28" spans="1:8" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A28" s="27">
-        <v>45789</v>
-      </c>
-      <c r="B28" s="21" t="s">
+      <c r="E29" s="18">
+        <v>6</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" s="18">
+        <v>6</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29"/>
+    </row>
+    <row r="30" spans="1:9" ht="409.6" x14ac:dyDescent="0.8">
+      <c r="A30" s="25">
+        <v>45792</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="18">
+        <v>6</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" s="18">
+        <v>6</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30"/>
+    </row>
+    <row r="31" spans="1:9" ht="268.8" x14ac:dyDescent="0.8">
+      <c r="A31" s="25">
+        <v>45793</v>
+      </c>
+      <c r="B31" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="19">
-        <v>6</v>
-      </c>
-      <c r="H28" s="16"/>
-    </row>
-    <row r="29" spans="1:8" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A29" s="27">
-        <v>45790</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="19">
-        <v>6</v>
-      </c>
-      <c r="H29" s="16"/>
-    </row>
-    <row r="30" spans="1:8" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A30" s="27">
-        <v>45791</v>
-      </c>
-      <c r="B30" s="21" t="s">
+      <c r="C31" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="18">
+        <v>6</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="18">
+        <v>6</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31"/>
+    </row>
+    <row r="32" spans="1:9" ht="409.6" x14ac:dyDescent="0.8">
+      <c r="A32" s="25">
+        <v>45796</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="19">
-        <v>6</v>
-      </c>
-      <c r="H30" s="16"/>
-    </row>
-    <row r="31" spans="1:8" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A31" s="27">
-        <v>45792</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="13" t="s">
+      <c r="D32" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="18">
+        <v>6</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="18">
+        <v>6</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32"/>
+    </row>
+    <row r="33" spans="1:9" ht="409.6" x14ac:dyDescent="0.8">
+      <c r="A33" s="25">
+        <v>45797</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E31" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" s="19">
-        <v>6</v>
-      </c>
-      <c r="H31" s="16"/>
-    </row>
-    <row r="32" spans="1:8" ht="258" x14ac:dyDescent="0.6">
-      <c r="A32" s="27">
-        <v>45793</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="13" t="s">
+      <c r="D33" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="18">
+        <v>6</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" s="18">
+        <v>6</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33"/>
+    </row>
+    <row r="34" spans="1:9" ht="409.6" x14ac:dyDescent="0.8">
+      <c r="A34" s="25">
+        <v>45798</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D34" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="19">
-        <v>6</v>
-      </c>
-      <c r="H32" s="16"/>
-    </row>
-    <row r="33" spans="1:8" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A33" s="27">
-        <v>45796</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" s="19">
-        <v>6</v>
-      </c>
-      <c r="H33" s="16"/>
-    </row>
-    <row r="34" spans="1:8" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A34" s="27">
-        <v>45797</v>
-      </c>
-      <c r="B34" s="21" t="s">
+      <c r="E34" s="18">
+        <v>6</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" s="18">
+        <v>6</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34"/>
+    </row>
+    <row r="35" spans="1:9" ht="409.6" x14ac:dyDescent="0.8">
+      <c r="A35" s="25">
+        <v>45799</v>
+      </c>
+      <c r="B35" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C35" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="19">
-        <v>6</v>
-      </c>
-      <c r="H34" s="16"/>
-    </row>
-    <row r="35" spans="1:8" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A35" s="27">
-        <v>45798</v>
-      </c>
-      <c r="B35" s="21" t="s">
+      <c r="D35" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E35" s="18">
+        <v>6</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="18">
+        <v>6</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35"/>
+    </row>
+    <row r="36" spans="1:9" ht="409.6" x14ac:dyDescent="0.8">
+      <c r="A36" s="25">
+        <v>45803</v>
+      </c>
+      <c r="B36" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C36" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" s="19">
-        <v>6</v>
-      </c>
-      <c r="H35" s="16"/>
-    </row>
-    <row r="36" spans="1:8" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A36" s="27">
-        <v>45799</v>
-      </c>
-      <c r="B36" s="21" t="s">
+      <c r="D36" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="18">
+        <v>6</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" s="18">
+        <v>6</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36"/>
+    </row>
+    <row r="37" spans="1:9" ht="409.6" x14ac:dyDescent="0.8">
+      <c r="A37" s="25">
+        <v>45804</v>
+      </c>
+      <c r="B37" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C37" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E36" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" s="19">
-        <v>6</v>
-      </c>
-      <c r="H36" s="16"/>
-    </row>
-    <row r="37" spans="1:8" ht="32.25" x14ac:dyDescent="0.6">
-      <c r="A37" s="27">
-        <v>45800</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F37" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="H37" s="16"/>
-    </row>
-    <row r="38" spans="1:8" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A38" s="27">
-        <v>45803</v>
-      </c>
-      <c r="B38" s="20" t="s">
+      <c r="D37" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="18">
+        <v>6</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" s="18">
+        <v>6</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37"/>
+    </row>
+    <row r="38" spans="1:9" ht="409.6" x14ac:dyDescent="0.8">
+      <c r="A38" s="25">
+        <v>45805</v>
+      </c>
+      <c r="B38" s="19" t="s">
         <v>84</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>22</v>
+      <c r="D38" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="18">
+        <v>6</v>
       </c>
       <c r="F38" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G38" s="19">
-        <v>6</v>
-      </c>
-      <c r="H38" s="16"/>
-    </row>
-    <row r="39" spans="1:8" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A39" s="27">
-        <v>45804</v>
-      </c>
-      <c r="B39" s="20" t="s">
+      <c r="G38" s="18">
+        <v>6</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38"/>
+    </row>
+    <row r="39" spans="1:9" ht="409.6" x14ac:dyDescent="0.8">
+      <c r="A39" s="25">
+        <v>45806</v>
+      </c>
+      <c r="B39" s="19" t="s">
         <v>85</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D39" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>22</v>
+      <c r="D39" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="18">
+        <v>6</v>
       </c>
       <c r="F39" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G39" s="19">
-        <v>6</v>
-      </c>
-      <c r="H39" s="16"/>
-    </row>
-    <row r="40" spans="1:8" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A40" s="27">
-        <v>45805</v>
-      </c>
-      <c r="B40" s="20" t="s">
+      <c r="G39" s="18">
+        <v>6</v>
+      </c>
+      <c r="H39" s="15"/>
+      <c r="I39"/>
+    </row>
+    <row r="40" spans="1:9" ht="268.8" x14ac:dyDescent="0.8">
+      <c r="A40" s="25">
+        <v>45807</v>
+      </c>
+      <c r="B40" s="19" t="s">
         <v>86</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>22</v>
+      <c r="D40" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="18">
+        <v>6</v>
       </c>
       <c r="F40" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="19">
-        <v>6</v>
-      </c>
-      <c r="H40" s="16"/>
-    </row>
-    <row r="41" spans="1:8" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A41" s="27">
-        <v>45806</v>
-      </c>
-      <c r="B41" s="20" t="s">
+      <c r="G40" s="18">
+        <v>6</v>
+      </c>
+      <c r="H40" s="15"/>
+      <c r="I40"/>
+    </row>
+    <row r="41" spans="1:9" ht="409.6" x14ac:dyDescent="0.8">
+      <c r="A41" s="25">
+        <v>45810</v>
+      </c>
+      <c r="B41" s="19" t="s">
         <v>87</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>22</v>
+      <c r="D41" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="18">
+        <v>6</v>
       </c>
       <c r="F41" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G41" s="19">
-        <v>6</v>
-      </c>
-      <c r="H41" s="16"/>
-    </row>
-    <row r="42" spans="1:8" ht="258" x14ac:dyDescent="0.6">
-      <c r="A42" s="27">
-        <v>45807</v>
-      </c>
-      <c r="B42" s="20" t="s">
+      <c r="G41" s="18">
+        <v>6</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41"/>
+    </row>
+    <row r="42" spans="1:9" ht="409.6" x14ac:dyDescent="0.8">
+      <c r="A42" s="25">
+        <v>45811</v>
+      </c>
+      <c r="B42" s="19" t="s">
         <v>88</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D42" s="23" t="s">
+      <c r="D42" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="18">
+        <v>6</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" s="18">
+        <v>6</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42"/>
+    </row>
+    <row r="43" spans="1:9" ht="409.6" x14ac:dyDescent="0.8">
+      <c r="A43" s="25">
+        <v>45812</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" s="19">
-        <v>6</v>
-      </c>
-      <c r="H42" s="16"/>
-    </row>
-    <row r="43" spans="1:8" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A43" s="27">
-        <v>45810</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" s="13" t="s">
+      <c r="E43" s="18">
+        <v>6</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="18">
+        <v>6</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43"/>
+    </row>
+    <row r="44" spans="1:9" ht="409.6" x14ac:dyDescent="0.8">
+      <c r="A44" s="25">
+        <v>45813</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D43" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="19">
-        <v>6</v>
-      </c>
-      <c r="H43" s="16"/>
-    </row>
-    <row r="44" spans="1:8" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A44" s="27">
-        <v>45811</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C44" s="13" t="s">
+      <c r="D44" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="18">
+        <v>6</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" s="18">
+        <v>6</v>
+      </c>
+      <c r="H44" s="15"/>
+      <c r="I44"/>
+    </row>
+    <row r="45" spans="1:9" ht="268.8" x14ac:dyDescent="0.8">
+      <c r="A45" s="25">
+        <v>45814</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D44" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" s="19">
-        <v>6</v>
-      </c>
-      <c r="H44" s="16"/>
-    </row>
-    <row r="45" spans="1:8" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A45" s="27">
-        <v>45812</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>22</v>
+      <c r="D45" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="18">
+        <v>6</v>
       </c>
       <c r="F45" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G45" s="19">
-        <v>6</v>
-      </c>
-      <c r="H45" s="16"/>
-    </row>
-    <row r="46" spans="1:8" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A46" s="27">
-        <v>45813</v>
-      </c>
-      <c r="B46" s="20" t="s">
+      <c r="G45" s="18">
+        <v>6</v>
+      </c>
+      <c r="H45" s="15"/>
+      <c r="I45"/>
+    </row>
+    <row r="46" spans="1:9" ht="409.6" x14ac:dyDescent="0.8">
+      <c r="A46" s="25">
+        <v>45817</v>
+      </c>
+      <c r="B46" s="19" t="s">
         <v>92</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D46" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E46" s="15" t="s">
-        <v>22</v>
+      <c r="D46" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="18">
+        <v>6</v>
       </c>
       <c r="F46" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G46" s="19">
-        <v>6</v>
-      </c>
-      <c r="H46" s="16"/>
-    </row>
-    <row r="47" spans="1:8" ht="258" x14ac:dyDescent="0.6">
-      <c r="A47" s="27">
-        <v>45814</v>
-      </c>
-      <c r="B47" s="13" t="s">
+      <c r="G46" s="18">
+        <v>6</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46"/>
+    </row>
+    <row r="47" spans="1:9" ht="409.6" x14ac:dyDescent="0.8">
+      <c r="A47" s="25">
+        <v>45818</v>
+      </c>
+      <c r="B47" s="19" t="s">
         <v>93</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D47" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E47" s="15" t="s">
-        <v>22</v>
+      <c r="D47" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="18">
+        <v>6</v>
       </c>
       <c r="F47" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G47" s="19">
-        <v>6</v>
-      </c>
-      <c r="H47" s="16"/>
-    </row>
-    <row r="48" spans="1:8" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A48" s="27">
-        <v>45817</v>
-      </c>
-      <c r="B48" s="20" t="s">
+      <c r="G47" s="18">
+        <v>6</v>
+      </c>
+      <c r="H47" s="15"/>
+      <c r="I47"/>
+    </row>
+    <row r="48" spans="1:9" ht="409.6" x14ac:dyDescent="0.8">
+      <c r="A48" s="25">
+        <v>45819</v>
+      </c>
+      <c r="B48" s="19" t="s">
         <v>94</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D48" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E48" s="15" t="s">
-        <v>22</v>
+      <c r="D48" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="18">
+        <v>6</v>
       </c>
       <c r="F48" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G48" s="19">
-        <v>6</v>
-      </c>
-      <c r="H48" s="16"/>
-    </row>
-    <row r="49" spans="1:8" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A49" s="27">
-        <v>45818</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>95</v>
+      <c r="G48" s="18">
+        <v>6</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48"/>
+    </row>
+    <row r="49" spans="1:9" ht="409.6" x14ac:dyDescent="0.8">
+      <c r="A49" s="25">
+        <v>45820</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>22</v>
+        <v>96</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E49" s="18">
+        <v>6</v>
       </c>
       <c r="F49" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G49" s="19">
-        <v>6</v>
-      </c>
-      <c r="H49" s="16"/>
-    </row>
-    <row r="50" spans="1:8" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A50" s="27">
-        <v>45819</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>96</v>
+      <c r="G49" s="18">
+        <v>6</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49"/>
+    </row>
+    <row r="50" spans="1:9" ht="302.39999999999998" x14ac:dyDescent="0.8">
+      <c r="A50" s="25">
+        <v>45821</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>98</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="E50" s="15" t="s">
-        <v>22</v>
+        <v>99</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E50" s="18">
+        <v>6</v>
       </c>
       <c r="F50" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G50" s="19">
-        <v>6</v>
-      </c>
-      <c r="H50" s="16"/>
-    </row>
-    <row r="51" spans="1:8" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A51" s="27">
-        <v>45820</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>99</v>
+      <c r="G50" s="18">
+        <v>6</v>
+      </c>
+      <c r="H50" s="15"/>
+      <c r="I50"/>
+    </row>
+    <row r="51" spans="1:9" ht="409.6" x14ac:dyDescent="0.8">
+      <c r="A51" s="25">
+        <v>45824</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>100</v>
       </c>
       <c r="C51" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E51" s="18">
+        <v>6</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" s="18">
+        <v>6</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51"/>
+    </row>
+    <row r="52" spans="1:9" ht="409.6" x14ac:dyDescent="0.8">
+      <c r="A52" s="25">
+        <v>45825</v>
+      </c>
+      <c r="B52" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="D51" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E51" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" s="19">
-        <v>6</v>
-      </c>
-      <c r="H51" s="16"/>
-    </row>
-    <row r="52" spans="1:8" ht="290.25" x14ac:dyDescent="0.6">
-      <c r="A52" s="27">
-        <v>45821</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>100</v>
-      </c>
       <c r="C52" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D52" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>22</v>
+        <v>105</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E52" s="18">
+        <v>6</v>
       </c>
       <c r="F52" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="G52" s="19">
-        <v>6</v>
-      </c>
-      <c r="H52" s="16"/>
-    </row>
-    <row r="53" spans="1:8" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A53" s="27">
-        <v>45824</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C53" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="E53" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F53" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" s="19">
-        <v>6</v>
-      </c>
-      <c r="H53" s="16"/>
-    </row>
-    <row r="54" spans="1:8" ht="409.5" x14ac:dyDescent="0.6">
-      <c r="A54" s="27">
-        <v>45825</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D54" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E54" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F54" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" s="19">
-        <v>6</v>
-      </c>
-      <c r="H54" s="16"/>
-    </row>
-    <row r="55" spans="1:8" ht="33" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="D55" s="24" t="s">
+      <c r="G52" s="18">
+        <v>6</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52"/>
+    </row>
+    <row r="53" spans="1:9" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.85">
+      <c r="D53" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E55" s="26">
+      <c r="E53" s="32">
+        <f>SUM(E13:E52)</f>
         <v>240</v>
       </c>
-      <c r="F55" s="25" t="s">
+      <c r="F53" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="G55" s="26">
-        <f>SUM(G13:G54)</f>
+      <c r="G53" s="24">
+        <f>SUM(G13:G52)</f>
         <v>240</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="18" thickTop="1" x14ac:dyDescent="0.35"/>
+      <c r="H53" s="2"/>
+      <c r="I53"/>
+    </row>
+    <row r="54" spans="1:9" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.5"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
